--- a/Newbee.AC/Project Idea/project idea.xlsx
+++ b/Newbee.AC/Project Idea/project idea.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shrif\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Newbee-Project\Newbee.AC\Project Idea\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3202B366-4EBB-4170-86E2-FEBBB247B812}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3AA6385-229C-4673-9EBA-3DCCDA61E796}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -588,7 +588,7 @@
   </sheetPr>
   <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A5" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A11" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
